--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -43,6 +43,39 @@
   </si>
   <si>
     <t>Ind2</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Fera</t>
+  </si>
+  <si>
+    <t>Radefy</t>
+  </si>
+  <si>
+    <t>Gerba</t>
+  </si>
+  <si>
+    <t>Yelda</t>
+  </si>
+  <si>
+    <t>Hooler</t>
+  </si>
+  <si>
+    <t>Gikeer</t>
+  </si>
+  <si>
+    <t>Hera</t>
+  </si>
+  <si>
+    <t>Caas</t>
+  </si>
+  <si>
+    <t>Queavert</t>
+  </si>
+  <si>
+    <t>LinearRegression</t>
   </si>
 </sst>
 </file>
@@ -849,15 +882,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -876,13 +913,16 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.30000000000000004</v>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -897,7 +937,7 @@
         <v>0.8</v>
       </c>
       <c r="H2">
-        <f>C2+B2+(IF(D2=0,J2*-1,J2))</f>
+        <f>C2+(LEN(B2)*0.1)+(IF(D2=0,J2*-1,J2))</f>
         <v>0.8</v>
       </c>
       <c r="I2">
@@ -908,13 +948,20 @@
         <f>IF(E2="F",0.5,0.6)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>0.77015961138099998</v>
+      </c>
+      <c r="M2">
+        <f>ABS(F2-L2)</f>
+        <v>2.9840388619000069E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.4</v>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -929,24 +976,31 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H31" si="0">C3+B3+(IF(D3=0,J3*-1,J3))</f>
+        <f t="shared" ref="H3:H31" si="0">C3+(LEN(B3)*0.1)+(IF(D3=0,J3*-1,J3))</f>
         <v>5</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I31" si="1">LEN(B3)*0.1</f>
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J31" si="2">IF(E3="F",0.5,0.6)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>4.8551422319500004</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="3">ABS(F3-L3)</f>
+        <v>0.14485776804999961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.60000000000000009</v>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -966,19 +1020,26 @@
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>4.1768670309699996</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>7.6867030969999917E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.5</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -998,19 +1059,26 @@
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>4.0944162436499996</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>9.4416243649999565E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0.5</v>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1030,19 +1098,26 @@
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>1.99179229481</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>9.1792294810000064E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0.60000000000000009</v>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1062,19 +1137,26 @@
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>2.1493721083900001</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>5.0627891610000031E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0.60000000000000009</v>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1094,19 +1176,26 @@
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>1.08510449088</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>8.510449088000005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0.4</v>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1126,19 +1215,26 @@
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>2.8088339222599998</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>9.1166077740000073E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0.4</v>
+      <c r="B10" t="s">
+        <v>16</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1158,19 +1254,26 @@
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>1.8442600276600001</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>5.5739972339999833E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0.8</v>
+      <c r="B11" t="s">
+        <v>17</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1190,14 +1293,21 @@
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>3.24861503674</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0.15138496325999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H12">
         <f t="shared" si="0"/>
         <v>-0.6</v>
@@ -1211,7 +1321,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H13">
         <f t="shared" si="0"/>
         <v>-0.6</v>
@@ -1225,7 +1335,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H14">
         <f t="shared" si="0"/>
         <v>-0.6</v>
@@ -1239,7 +1349,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H15">
         <f t="shared" si="0"/>
         <v>-0.6</v>
@@ -1253,7 +1363,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H16">
         <f t="shared" si="0"/>
         <v>-0.6</v>
